--- a/Documents/Logical Model/Matrimony DB Design (version 1).xlsb.xlsx
+++ b/Documents/Logical Model/Matrimony DB Design (version 1).xlsb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SureshKumarThanda\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatrimonyServices\Github\matrimonyservices\Documents\Logical Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D379ADBA-849A-4C66-A2A6-B0C55025E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B9630-8C4B-47D2-AF1B-8E6CF2278694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{0D16D34A-D0C6-4E72-8696-AC74AAD705FA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0D16D34A-D0C6-4E72-8696-AC74AAD705FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Authentication Tables" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Dropdown List Values" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="654">
   <si>
     <t>CreatedDate</t>
   </si>
@@ -1278,13 +1277,739 @@
   </si>
   <si>
     <t>Annulled</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Judaism</t>
+  </si>
+  <si>
+    <t>Bahá'í Faith</t>
+  </si>
+  <si>
+    <t>Jainism</t>
+  </si>
+  <si>
+    <t>Shinto</t>
+  </si>
+  <si>
+    <t>Taoism</t>
+  </si>
+  <si>
+    <t>Zoroastrianism</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Sikh</t>
+  </si>
+  <si>
+    <t>Caste</t>
+  </si>
+  <si>
+    <t>Brahmin</t>
+  </si>
+  <si>
+    <t>Kshatriya</t>
+  </si>
+  <si>
+    <t>Vaishya</t>
+  </si>
+  <si>
+    <t>Shudra</t>
+  </si>
+  <si>
+    <t>Jat</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>Gujjar</t>
+  </si>
+  <si>
+    <t>Maratha</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>Nair</t>
+  </si>
+  <si>
+    <t>Naidu</t>
+  </si>
+  <si>
+    <t>Iyer</t>
+  </si>
+  <si>
+    <t>Iyengar</t>
+  </si>
+  <si>
+    <t>Mudaliar</t>
+  </si>
+  <si>
+    <t>Chettiar</t>
+  </si>
+  <si>
+    <t>Pillai</t>
+  </si>
+  <si>
+    <t>Menon</t>
+  </si>
+  <si>
+    <t>Parsi</t>
+  </si>
+  <si>
+    <t>Sindhi</t>
+  </si>
+  <si>
+    <t>Bunt</t>
+  </si>
+  <si>
+    <t>Kamma</t>
+  </si>
+  <si>
+    <t>Kapu</t>
+  </si>
+  <si>
+    <t>Rajput</t>
+  </si>
+  <si>
+    <t>Kayastha</t>
+  </si>
+  <si>
+    <t>Thakur</t>
+  </si>
+  <si>
+    <t>Bania</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>Maheshwari</t>
+  </si>
+  <si>
+    <t>Khandelwal</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Khatri</t>
+  </si>
+  <si>
+    <t>Arora</t>
+  </si>
+  <si>
+    <t>Jat Sikh</t>
+  </si>
+  <si>
+    <t>Ramgharia</t>
+  </si>
+  <si>
+    <t>Labana</t>
+  </si>
+  <si>
+    <t>Khokhar</t>
+  </si>
+  <si>
+    <t>Ravidasia</t>
+  </si>
+  <si>
+    <t>Mazhabi</t>
+  </si>
+  <si>
+    <t>Valmiki</t>
+  </si>
+  <si>
+    <t>Kori</t>
+  </si>
+  <si>
+    <t>Meena</t>
+  </si>
+  <si>
+    <t>Garhwali</t>
+  </si>
+  <si>
+    <t>Kumaoni</t>
+  </si>
+  <si>
+    <t>Ahir</t>
+  </si>
+  <si>
+    <t>Teli</t>
+  </si>
+  <si>
+    <t>Kalar</t>
+  </si>
+  <si>
+    <t>Lingayat</t>
+  </si>
+  <si>
+    <t>Vokkaliga</t>
+  </si>
+  <si>
+    <t>Kamma Naidu</t>
+  </si>
+  <si>
+    <t>Velama</t>
+  </si>
+  <si>
+    <t>Kapu Naidu</t>
+  </si>
+  <si>
+    <t>Goundar</t>
+  </si>
+  <si>
+    <t>Vanniyar</t>
+  </si>
+  <si>
+    <t>Devar</t>
+  </si>
+  <si>
+    <t>Nadar</t>
+  </si>
+  <si>
+    <t>Gounder</t>
+  </si>
+  <si>
+    <t>Balija/Goud</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Actor/Actress</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Attorney/Lawyer</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Barista</t>
+  </si>
+  <si>
+    <t>Biologist</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Civil Engineer</t>
+  </si>
+  <si>
+    <t>Content Creator</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Doctor/Physician</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Fashion Designer</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>Graphic Designer</t>
+  </si>
+  <si>
+    <t>Hair Stylist</t>
+  </si>
+  <si>
+    <t>IT Professional</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
+  </si>
+  <si>
+    <t>Musician</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Nutritionist</t>
+  </si>
+  <si>
+    <t>Paramedic</t>
+  </si>
+  <si>
+    <t>Pharmacist</t>
+  </si>
+  <si>
+    <t>Photographer</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Police Officer</t>
+  </si>
+  <si>
+    <t>Professor/Teacher</t>
+  </si>
+  <si>
+    <t>Psychologist</t>
+  </si>
+  <si>
+    <t>Real Estate Agent</t>
+  </si>
+  <si>
+    <t>Research Scientist</t>
+  </si>
+  <si>
+    <t>Sales Representative</t>
+  </si>
+  <si>
+    <t>Social Worker</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Speech Therapist</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Surveyor</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Translator</t>
+  </si>
+  <si>
+    <t>Travel Agent</t>
+  </si>
+  <si>
+    <t>Truck Driver</t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
+  </si>
+  <si>
+    <t>Waiter/Waitress</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Vision Impairment</t>
+  </si>
+  <si>
+    <t>Hearing Impairment</t>
+  </si>
+  <si>
+    <t>Mobility Impairment</t>
+  </si>
+  <si>
+    <t>Cognitive Impairment</t>
+  </si>
+  <si>
+    <t>Speech Impairment</t>
+  </si>
+  <si>
+    <t>Deaf-Blindness</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder</t>
+  </si>
+  <si>
+    <t>Intellectual Disability</t>
+  </si>
+  <si>
+    <t>Psychiatric Disability</t>
+  </si>
+  <si>
+    <t>Learning Disability</t>
+  </si>
+  <si>
+    <t>Dyslexia</t>
+  </si>
+  <si>
+    <t>Attention Deficit Hyperactivity Disorder (ADHD)</t>
+  </si>
+  <si>
+    <t>Down Syndrome</t>
+  </si>
+  <si>
+    <t>Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t>Chronic Fatigue Syndrome</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis</t>
+  </si>
+  <si>
+    <t>Fibromyalgia</t>
+  </si>
+  <si>
+    <t>Amputation</t>
+  </si>
+  <si>
+    <t>Spinal Cord Injury</t>
+  </si>
+  <si>
+    <t>Traumatic Brain Injury (TBI)</t>
+  </si>
+  <si>
+    <t>Diabetes-related Disability</t>
+  </si>
+  <si>
+    <t>Chronic Pain Disorder</t>
+  </si>
+  <si>
+    <t>Friendship Type</t>
+  </si>
+  <si>
+    <t>Close Friends</t>
+  </si>
+  <si>
+    <t>Childhood Friends</t>
+  </si>
+  <si>
+    <t>Work Friends</t>
+  </si>
+  <si>
+    <t>School Friends</t>
+  </si>
+  <si>
+    <t>College Friends</t>
+  </si>
+  <si>
+    <t>Neighbors</t>
+  </si>
+  <si>
+    <t>Casual Friends</t>
+  </si>
+  <si>
+    <t>Best Friends</t>
+  </si>
+  <si>
+    <t>Online Friends</t>
+  </si>
+  <si>
+    <t>Long-Distance Friends</t>
+  </si>
+  <si>
+    <t>Gym Buddies</t>
+  </si>
+  <si>
+    <t>Hobby Buddies</t>
+  </si>
+  <si>
+    <t>Travel Companions</t>
+  </si>
+  <si>
+    <t>Study Partners</t>
+  </si>
+  <si>
+    <t>Pen Pals</t>
+  </si>
+  <si>
+    <t>Activity Friends</t>
+  </si>
+  <si>
+    <t>Supportive Friends</t>
+  </si>
+  <si>
+    <t>Adventurous Friends</t>
+  </si>
+  <si>
+    <t>Party Friends</t>
+  </si>
+  <si>
+    <t>Foodie Friends</t>
+  </si>
+  <si>
+    <t>Coffee Buddies</t>
+  </si>
+  <si>
+    <t>Book Club Friends</t>
+  </si>
+  <si>
+    <t>Gaming Pals</t>
+  </si>
+  <si>
+    <t>Artistic Companions</t>
+  </si>
+  <si>
+    <t>Professional Network</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Traveling</t>
+  </si>
+  <si>
+    <t>Cooking</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>Gardening</t>
+  </si>
+  <si>
+    <t>Painting/Drawing</t>
+  </si>
+  <si>
+    <t>Music (playing or listening)</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Watching Movies/TV</t>
+  </si>
+  <si>
+    <t>Sports (specify the sport, e.g., Tennis, Cricket)</t>
+  </si>
+  <si>
+    <t>Fitness/Exercise</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>DIY/Crafting</t>
+  </si>
+  <si>
+    <t>Hiking</t>
+  </si>
+  <si>
+    <t>Cycling</t>
+  </si>
+  <si>
+    <t>Yoga/Meditation</t>
+  </si>
+  <si>
+    <t>Volunteering/Community Service</t>
+  </si>
+  <si>
+    <t>Playing a Musical Instrument</t>
+  </si>
+  <si>
+    <t>Learning New Languages</t>
+  </si>
+  <si>
+    <t>Technology/Programming</t>
+  </si>
+  <si>
+    <t>Fashion/Shopping</t>
+  </si>
+  <si>
+    <t>Food Tasting/Exploring Culinary Delights</t>
+  </si>
+  <si>
+    <t>Pets/Animal Care</t>
+  </si>
+  <si>
+    <t>Outdoor Activities (e.g., camping, hiking)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Watching Movies/TV Shows</t>
+  </si>
+  <si>
+    <t>Art and Crafts</t>
+  </si>
+  <si>
+    <t>Technology/Innovation</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Food and Culinary Arts</t>
+  </si>
+  <si>
+    <t>Nature and Outdoor Activities</t>
+  </si>
+  <si>
+    <t>Volunteering and Social Causes</t>
+  </si>
+  <si>
+    <t>Pets/Animal Lover</t>
+  </si>
+  <si>
+    <t>Spiritual/Religious Activities</t>
+  </si>
+  <si>
+    <t>Yoga and Meditation</t>
+  </si>
+  <si>
+    <t>Science and Discovery</t>
+  </si>
+  <si>
+    <t>Socializing and Networking</t>
+  </si>
+  <si>
+    <t>Collectibles and Hobbies</t>
+  </si>
+  <si>
+    <t>Business and Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Dietry Option</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>Non-Vegetarian</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Pescatarian</t>
+  </si>
+  <si>
+    <t>Ovo-Vegetarian</t>
+  </si>
+  <si>
+    <t>Lacto-Vegetarian</t>
+  </si>
+  <si>
+    <t>Paleo</t>
+  </si>
+  <si>
+    <t>Gluten-Free</t>
+  </si>
+  <si>
+    <t>Dairy-Free</t>
+  </si>
+  <si>
+    <t>Nut-Free</t>
+  </si>
+  <si>
+    <t>Halal</t>
+  </si>
+  <si>
+    <t>Kosher</t>
+  </si>
+  <si>
+    <t>Raw Food</t>
+  </si>
+  <si>
+    <t>Flexitarian</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>Macrobiotic</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Locavore</t>
+  </si>
+  <si>
+    <t>Plant-Based</t>
+  </si>
+  <si>
+    <t>Sugar-Free</t>
+  </si>
+  <si>
+    <t>Low-Carb</t>
+  </si>
+  <si>
+    <t>High-Fiber</t>
+  </si>
+  <si>
+    <t>Balanced Diet</t>
+  </si>
+  <si>
+    <t>Other (Specify)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,6 +2033,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
@@ -1346,7 +2078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1356,12 +2088,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1369,6 +2095,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1701,18 +2439,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -1845,12 +2583,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="H10" t="s">
         <v>135</v>
       </c>
@@ -1876,12 +2614,12 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -2133,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F35D9-44CE-464E-9F57-0C14E765EFEF}">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,42 +2891,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="5" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="Y1" s="5" t="s">
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="Y1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AD1" s="5" t="s">
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AD1" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -2566,30 +3304,30 @@
       <c r="B17" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="M17" s="5" t="s">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="R17" s="5" t="s">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="Y17" s="5" t="s">
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="Y17" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -2926,12 +3664,12 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
       <c r="M36" t="s">
         <v>198</v>
       </c>
@@ -3096,30 +3834,30 @@
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="H54" s="5" t="s">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="H54" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="M54" s="5" t="s">
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="M54" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="R54" s="5" t="s">
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="R54" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
@@ -3328,7 +4066,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,24 +4075,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3601,8 +4339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CB6672-FC8C-4FEE-A6E6-8E469A374D42}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3611,18 +4349,18 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3766,12 +4504,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
         <v>221</v>
@@ -3939,12 +4677,12 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
       <c r="M28" s="4" t="s">
         <v>236</v>
       </c>
@@ -4092,135 +4830,369 @@
     <row r="47" spans="8:14" x14ac:dyDescent="0.3">
       <c r="M47" s="4"/>
     </row>
-    <row r="49" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M49" s="6" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>628</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="M49" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-    </row>
-    <row r="50" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>588</v>
+      </c>
       <c r="M50" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="M51" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>590</v>
+      </c>
       <c r="M52" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>591</v>
+      </c>
       <c r="M53" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>592</v>
+      </c>
       <c r="M54" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="55" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>593</v>
+      </c>
       <c r="M55" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="56" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="M56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>595</v>
+      </c>
       <c r="M57" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="M58" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="M59" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>598</v>
+      </c>
       <c r="M60" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B61" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>599</v>
+      </c>
       <c r="M61" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="62" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="M62" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B63" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>601</v>
+      </c>
       <c r="M63" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16" ht="15" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>602</v>
+      </c>
       <c r="M64" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="M65" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="M66" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="M67" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="68" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="M68" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="69" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="M69" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="M70" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="M71" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="M72" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="73" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="M73" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="M74" t="s">
         <v>281</v>
       </c>
@@ -4428,216 +5400,857 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1442E235-87DB-4BFE-A6F2-84D5B70C5A3E}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>371</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>369</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F2" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>370</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="D4" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="D5" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F5" s="5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F6" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>373</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F7" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F8" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F10" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>377</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>378</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D14" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="D15" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="D17" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="D18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="D19" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="D20" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="D21" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="D22" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="D25" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="F26" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="D27" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="D29" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="D30" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="D32" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="D33" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="D34" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="D35" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>398</v>
       </c>
+      <c r="D36" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="D37" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>532</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D32:D87">
+    <sortCondition ref="D32:D87"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/Logical Model/Matrimony DB Design (version 1).xlsb.xlsx
+++ b/Documents/Logical Model/Matrimony DB Design (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MatrimonyServices\Github\matrimonyservices\Documents\Logical Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B9630-8C4B-47D2-AF1B-8E6CF2278694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94E3C5D7-4A46-435A-82DC-AC0448AD6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{0D16D34A-D0C6-4E72-8696-AC74AAD705FA}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="Dropdown List Values" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1150,12 +1151,6 @@
     <t>employee_number</t>
   </si>
   <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
     <t>Sex assigned at Birth</t>
   </si>
   <si>
@@ -1237,9 +1232,6 @@
     <t>Work</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t>Phone Type</t>
   </si>
   <si>
@@ -2003,6 +1995,15 @@
   </si>
   <si>
     <t>Other (Specify)</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -2097,17 +2098,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,9 +2128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2167,7 +2168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2273,7 +2274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2415,7 +2416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2426,7 +2427,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:K18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2439,18 +2440,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -2583,12 +2584,12 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="H10" t="s">
         <v>135</v>
       </c>
@@ -2614,12 +2615,12 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -2871,8 +2872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F35D9-44CE-464E-9F57-0C14E765EFEF}">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2891,42 +2892,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="R1" s="8" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="R1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="Y1" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AD1" s="8" t="s">
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AD1" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
@@ -3304,30 +3305,30 @@
       <c r="B17" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="M17" s="8" t="s">
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="M17" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="R17" s="8" t="s">
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="R17" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="Y17" s="8" t="s">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="Y17" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -3664,12 +3665,12 @@
       <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
       <c r="M36" t="s">
         <v>198</v>
       </c>
@@ -3834,30 +3835,30 @@
       </c>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="H54" s="8" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="H54" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="M54" s="8" t="s">
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="M54" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="R54" s="8" t="s">
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="R54" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
@@ -4075,24 +4076,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="N1" s="8" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -4339,8 +4340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CB6672-FC8C-4FEE-A6E6-8E469A374D42}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4349,18 +4350,18 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4504,12 +4505,12 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
         <v>221</v>
@@ -4677,12 +4678,12 @@
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
       <c r="M28" s="4" t="s">
         <v>236</v>
       </c>
@@ -4832,30 +4833,30 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="M49" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="M49" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
     </row>
     <row r="50" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="M50" t="s">
         <v>257</v>
@@ -4863,13 +4864,13 @@
     </row>
     <row r="51" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M51" t="s">
         <v>258</v>
@@ -4877,13 +4878,13 @@
     </row>
     <row r="52" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M52" t="s">
         <v>259</v>
@@ -4891,13 +4892,13 @@
     </row>
     <row r="53" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M53" t="s">
         <v>260</v>
@@ -4905,13 +4906,13 @@
     </row>
     <row r="54" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M54" t="s">
         <v>261</v>
@@ -4919,13 +4920,13 @@
     </row>
     <row r="55" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M55" t="s">
         <v>262</v>
@@ -4933,13 +4934,13 @@
     </row>
     <row r="56" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M56" t="s">
         <v>263</v>
@@ -4947,13 +4948,13 @@
     </row>
     <row r="57" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M57" t="s">
         <v>264</v>
@@ -4961,13 +4962,13 @@
     </row>
     <row r="58" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M58" t="s">
         <v>265</v>
@@ -4975,13 +4976,13 @@
     </row>
     <row r="59" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M59" t="s">
         <v>266</v>
@@ -4989,13 +4990,13 @@
     </row>
     <row r="60" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M60" t="s">
         <v>267</v>
@@ -5003,13 +5004,13 @@
     </row>
     <row r="61" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M61" t="s">
         <v>268</v>
@@ -5017,13 +5018,13 @@
     </row>
     <row r="62" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M62" t="s">
         <v>269</v>
@@ -5031,13 +5032,13 @@
     </row>
     <row r="63" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="M63" t="s">
         <v>270</v>
@@ -5045,13 +5046,13 @@
     </row>
     <row r="64" spans="2:16" ht="15" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M64" t="s">
         <v>271</v>
@@ -5059,13 +5060,13 @@
     </row>
     <row r="65" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M65" t="s">
         <v>272</v>
@@ -5073,13 +5074,13 @@
     </row>
     <row r="66" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M66" t="s">
         <v>273</v>
@@ -5087,13 +5088,13 @@
     </row>
     <row r="67" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M67" t="s">
         <v>274</v>
@@ -5101,13 +5102,13 @@
     </row>
     <row r="68" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M68" t="s">
         <v>275</v>
@@ -5115,13 +5116,13 @@
     </row>
     <row r="69" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="M69" t="s">
         <v>276</v>
@@ -5129,13 +5130,13 @@
     </row>
     <row r="70" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="M70" t="s">
         <v>277</v>
@@ -5143,13 +5144,13 @@
     </row>
     <row r="71" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M71" t="s">
         <v>278</v>
@@ -5157,13 +5158,13 @@
     </row>
     <row r="72" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M72" t="s">
         <v>279</v>
@@ -5171,13 +5172,13 @@
     </row>
     <row r="73" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B73" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M73" t="s">
         <v>280</v>
@@ -5185,13 +5186,13 @@
     </row>
     <row r="74" spans="2:13" ht="15" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="M74" t="s">
         <v>281</v>
@@ -5402,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1442E235-87DB-4BFE-A6F2-84D5B70C5A3E}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5414,837 +5415,837 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>652</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>653</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D4" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D5" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
-        <v>412</v>
+      <c r="D14" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>424</v>
+        <v>389</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>421</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>560</v>
+        <v>422</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D31" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>399</v>
+      <c r="A32" s="8" t="s">
+        <v>396</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>398</v>
+        <v>651</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="D37" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>533</v>
+      <c r="A38" s="9" t="s">
+        <v>530</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
